--- a/stock_predictor_ai/data/cleaned/DG.xlsx
+++ b/stock_predictor_ai/data/cleaned/DG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3923"/>
+  <dimension ref="A1:F3924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78909,6 +78909,26 @@
         <v>191587</v>
       </c>
     </row>
+    <row r="3924">
+      <c r="A3924" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3924" t="n">
+        <v>111.5350036621094</v>
+      </c>
+      <c r="C3924" t="n">
+        <v>112.6500015258789</v>
+      </c>
+      <c r="D3924" t="n">
+        <v>111.0599975585938</v>
+      </c>
+      <c r="E3924" t="n">
+        <v>112.7399978637695</v>
+      </c>
+      <c r="F3924" t="n">
+        <v>256197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/DG.xlsx
+++ b/stock_predictor_ai/data/cleaned/DG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3924"/>
+  <dimension ref="A1:F3925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78929,6 +78929,26 @@
         <v>256197</v>
       </c>
     </row>
+    <row r="3925">
+      <c r="A3925" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3925" t="n">
+        <v>113.2200012207031</v>
+      </c>
+      <c r="C3925" t="n">
+        <v>114.1800003051758</v>
+      </c>
+      <c r="D3925" t="n">
+        <v>112.9700012207031</v>
+      </c>
+      <c r="E3925" t="n">
+        <v>113.6100006103516</v>
+      </c>
+      <c r="F3925" t="n">
+        <v>2285200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/DG.xlsx
+++ b/stock_predictor_ai/data/cleaned/DG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3925"/>
+  <dimension ref="A1:F3926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78949,6 +78949,26 @@
         <v>2285200</v>
       </c>
     </row>
+    <row r="3926">
+      <c r="A3926" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3926" t="n">
+        <v>109.0449981689453</v>
+      </c>
+      <c r="C3926" t="n">
+        <v>110.2799987792969</v>
+      </c>
+      <c r="D3926" t="n">
+        <v>108.7301025390625</v>
+      </c>
+      <c r="E3926" t="n">
+        <v>110.0899963378906</v>
+      </c>
+      <c r="F3926" t="n">
+        <v>425251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/DG.xlsx
+++ b/stock_predictor_ai/data/cleaned/DG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3926"/>
+  <dimension ref="A1:F3927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78969,6 +78969,26 @@
         <v>425251</v>
       </c>
     </row>
+    <row r="3927">
+      <c r="A3927" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3927" t="n">
+        <v>110.3560028076172</v>
+      </c>
+      <c r="C3927" t="n">
+        <v>110.4964981079102</v>
+      </c>
+      <c r="D3927" t="n">
+        <v>108.3399963378906</v>
+      </c>
+      <c r="E3927" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="F3927" t="n">
+        <v>1086601</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/DG.xlsx
+++ b/stock_predictor_ai/data/cleaned/DG.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3927"/>
+  <dimension ref="A1:F3922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78889,106 +78891,6 @@
         <v>2095400</v>
       </c>
     </row>
-    <row r="3923">
-      <c r="A3923" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3923" t="n">
-        <v>114.8899993896484</v>
-      </c>
-      <c r="C3923" t="n">
-        <v>116.0699996948242</v>
-      </c>
-      <c r="D3923" t="n">
-        <v>114.5100021362305</v>
-      </c>
-      <c r="E3923" t="n">
-        <v>115.4899978637695</v>
-      </c>
-      <c r="F3923" t="n">
-        <v>191587</v>
-      </c>
-    </row>
-    <row r="3924">
-      <c r="A3924" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3924" t="n">
-        <v>111.5350036621094</v>
-      </c>
-      <c r="C3924" t="n">
-        <v>112.6500015258789</v>
-      </c>
-      <c r="D3924" t="n">
-        <v>111.0599975585938</v>
-      </c>
-      <c r="E3924" t="n">
-        <v>112.7399978637695</v>
-      </c>
-      <c r="F3924" t="n">
-        <v>256197</v>
-      </c>
-    </row>
-    <row r="3925">
-      <c r="A3925" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3925" t="n">
-        <v>113.2200012207031</v>
-      </c>
-      <c r="C3925" t="n">
-        <v>114.1800003051758</v>
-      </c>
-      <c r="D3925" t="n">
-        <v>112.9700012207031</v>
-      </c>
-      <c r="E3925" t="n">
-        <v>113.6100006103516</v>
-      </c>
-      <c r="F3925" t="n">
-        <v>2285200</v>
-      </c>
-    </row>
-    <row r="3926">
-      <c r="A3926" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3926" t="n">
-        <v>109.0449981689453</v>
-      </c>
-      <c r="C3926" t="n">
-        <v>110.2799987792969</v>
-      </c>
-      <c r="D3926" t="n">
-        <v>108.7301025390625</v>
-      </c>
-      <c r="E3926" t="n">
-        <v>110.0899963378906</v>
-      </c>
-      <c r="F3926" t="n">
-        <v>425251</v>
-      </c>
-    </row>
-    <row r="3927">
-      <c r="A3927" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3927" t="n">
-        <v>110.3560028076172</v>
-      </c>
-      <c r="C3927" t="n">
-        <v>110.4964981079102</v>
-      </c>
-      <c r="D3927" t="n">
-        <v>108.3399963378906</v>
-      </c>
-      <c r="E3927" t="n">
-        <v>109.75</v>
-      </c>
-      <c r="F3927" t="n">
-        <v>1086601</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
